--- a/Results/Categorization/dp-glove.xlsx
+++ b/Results/Categorization/dp-glove.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1793">
   <si>
     <t>id</t>
   </si>
@@ -4027,424 +4027,388 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD||FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|PRICES</t>
+    <t>PRICES||FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES||FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES|SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|AMBIENCE</t>
@@ -5832,13 +5796,13 @@
         <v>1276</v>
       </c>
       <c r="F2" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="H2" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5858,13 +5822,13 @@
         <v>1277</v>
       </c>
       <c r="F3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="H3" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5884,13 +5848,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="H4" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5910,13 +5874,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="H5" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5936,13 +5900,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="H6" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5962,7 +5926,7 @@
         <v>1276</v>
       </c>
       <c r="H7" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5982,13 +5946,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="H8" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6008,13 +5972,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="H9" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6034,13 +5998,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="H10" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6060,13 +6024,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="G11" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="H11" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6086,13 +6050,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G12" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="H12" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6112,13 +6076,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G13" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="H13" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6138,13 +6102,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="G14" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="H14" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6164,13 +6128,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G15" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="H15" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6190,13 +6154,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G16" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="H16" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6216,13 +6180,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="H17" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6242,13 +6206,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="H18" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6268,7 +6232,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6288,7 +6252,7 @@
         <v>1276</v>
       </c>
       <c r="H20" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6308,7 +6272,7 @@
         <v>1285</v>
       </c>
       <c r="H21" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6328,13 +6292,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G22" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="H22" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6354,13 +6318,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G23" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="H23" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6386,7 +6350,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6406,13 +6370,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G25" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="H25" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6432,7 +6396,7 @@
         <v>1278</v>
       </c>
       <c r="H26" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6452,7 +6416,7 @@
         <v>1277</v>
       </c>
       <c r="H27" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6472,13 +6436,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G28" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="H28" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6498,7 +6462,7 @@
         <v>1279</v>
       </c>
       <c r="H29" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6518,13 +6482,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G30" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="H30" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6544,13 +6508,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="H31" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6576,7 +6540,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6602,7 +6566,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6628,7 +6592,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6648,7 +6612,7 @@
         <v>1287</v>
       </c>
       <c r="H35" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6668,7 +6632,7 @@
         <v>1276</v>
       </c>
       <c r="H36" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6694,7 +6658,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6714,13 +6678,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="H38" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6740,13 +6704,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G39" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="H39" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6766,7 +6730,7 @@
         <v>1285</v>
       </c>
       <c r="H40" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6786,13 +6750,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="H41" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6812,13 +6776,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="H42" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6838,13 +6802,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="G43" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="H43" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6870,7 +6834,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6890,13 +6854,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G45" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="H45" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6916,7 +6880,7 @@
         <v>1289</v>
       </c>
       <c r="H46" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6936,7 +6900,7 @@
         <v>1277</v>
       </c>
       <c r="H47" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6956,7 +6920,7 @@
         <v>1279</v>
       </c>
       <c r="H48" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6976,13 +6940,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G49" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="H49" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7002,13 +6966,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G50" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="H50" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7028,13 +6992,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="G51" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="H51" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7054,13 +7018,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G52" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="H52" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7080,13 +7044,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G53" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="H53" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7106,13 +7070,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G54" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="H54" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7132,13 +7096,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="G55" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="H55" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7158,13 +7122,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="G56" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="H56" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7184,13 +7148,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G57" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="H57" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7210,13 +7174,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G58" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="H58" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7236,13 +7200,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G59" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="H59" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7262,13 +7226,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G60" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="H60" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7288,13 +7252,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G61" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="H61" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7314,13 +7278,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="G62" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="H62" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7340,13 +7304,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G63" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="H63" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7366,13 +7330,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G64" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="H64" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7398,7 +7362,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7418,7 +7382,7 @@
         <v>1276</v>
       </c>
       <c r="H66" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7438,13 +7402,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="H67" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7464,7 +7428,7 @@
         <v>1294</v>
       </c>
       <c r="H68" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7484,7 +7448,7 @@
         <v>1295</v>
       </c>
       <c r="H69" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7504,7 +7468,7 @@
         <v>1278</v>
       </c>
       <c r="H70" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7524,13 +7488,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="G71" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="H71" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7550,13 +7514,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G72" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="H72" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7582,7 +7546,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7602,13 +7566,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G74" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="H74" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7628,13 +7592,13 @@
         <v>1276</v>
       </c>
       <c r="F75" t="s">
-        <v>1371</v>
+        <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="H75" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7654,13 +7618,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G76" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="H76" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7680,13 +7644,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G77" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="H77" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7706,13 +7670,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G78" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="H78" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7732,7 +7696,7 @@
         <v>1278</v>
       </c>
       <c r="H79" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7758,7 +7722,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7778,7 +7742,7 @@
         <v>1278</v>
       </c>
       <c r="H81" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7804,7 +7768,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7824,7 +7788,7 @@
         <v>1278</v>
       </c>
       <c r="H83" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7844,13 +7808,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G84" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="H84" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7870,13 +7834,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="H85" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7896,13 +7860,13 @@
         <v>1278</v>
       </c>
       <c r="F86" t="s">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="H86" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7922,13 +7886,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G87" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="H87" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7948,13 +7912,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G88" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H88" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7974,13 +7938,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G89" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="H89" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8000,13 +7964,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="G90" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="H90" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8026,13 +7990,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="G91" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="H91" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8052,13 +8016,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G92" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="H92" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8078,13 +8042,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G93" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="H93" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8104,13 +8068,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G94" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="H94" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8130,13 +8094,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G95" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="H95" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8156,13 +8120,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G96" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="H96" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8182,13 +8146,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1383</v>
+        <v>1365</v>
       </c>
       <c r="G97" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="H97" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8208,13 +8172,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G98" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="H98" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8234,13 +8198,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="H99" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8260,13 +8224,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="H100" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8286,7 +8250,7 @@
         <v>1278</v>
       </c>
       <c r="H101" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8309,10 +8273,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="H102" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8332,13 +8296,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="G103" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="H103" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8358,13 +8322,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1383</v>
+        <v>1365</v>
       </c>
       <c r="G104" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="H104" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8390,7 +8354,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8410,13 +8374,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G106" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="H106" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8436,7 +8400,7 @@
         <v>1276</v>
       </c>
       <c r="H107" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8456,13 +8420,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G108" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="H108" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8482,10 +8446,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="H109" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8511,7 +8475,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8537,7 +8501,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8557,13 +8521,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="G112" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="H112" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8583,13 +8547,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G113" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="H113" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8615,7 +8579,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8635,13 +8599,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="G115" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="H115" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8661,13 +8625,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="G116" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="H116" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8687,13 +8651,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="G117" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="H117" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8713,13 +8677,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="G118" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="H118" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8739,13 +8703,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G119" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="H119" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8765,13 +8729,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G120" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="H120" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8791,13 +8755,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G121" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="H121" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8823,7 +8787,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8843,7 +8807,7 @@
         <v>1278</v>
       </c>
       <c r="H123" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8869,7 +8833,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8889,13 +8853,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G125" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="H125" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8915,7 +8879,7 @@
         <v>1278</v>
       </c>
       <c r="H126" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8935,13 +8899,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1392</v>
+        <v>1339</v>
       </c>
       <c r="G127" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="H127" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8967,7 +8931,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8987,13 +8951,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G129" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="H129" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9013,13 +8977,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G130" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="H130" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9039,13 +9003,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="G131" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="H131" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9071,7 +9035,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9097,7 +9061,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9117,13 +9081,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="G134" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="H134" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9143,13 +9107,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="G135" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="H135" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9169,13 +9133,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G136" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
       <c r="H136" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9195,13 +9159,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="G137" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="H137" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9227,7 +9191,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9247,13 +9211,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="G139" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="H139" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9273,13 +9237,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="G140" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="H140" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9299,13 +9263,13 @@
         <v>1278</v>
       </c>
       <c r="F141" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="H141" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9325,7 +9289,7 @@
         <v>1278</v>
       </c>
       <c r="H142" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9345,7 +9309,7 @@
         <v>1284</v>
       </c>
       <c r="H143" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9365,13 +9329,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1370</v>
+        <v>1391</v>
       </c>
       <c r="G144" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="H144" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9391,13 +9355,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="G145" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="H145" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9417,13 +9381,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="G146" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="H146" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9443,13 +9407,13 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="H147" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9469,7 +9433,7 @@
         <v>1278</v>
       </c>
       <c r="H148" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9489,13 +9453,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G149" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="H149" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9515,13 +9479,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="G150" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="H150" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9541,13 +9505,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="G151" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
       <c r="H151" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9567,13 +9531,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G152" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="H152" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9593,13 +9557,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G153" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="H153" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9619,13 +9583,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="G154" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="H154" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9645,7 +9609,7 @@
         <v>1278</v>
       </c>
       <c r="H155" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9671,7 +9635,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9691,13 +9655,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="H157" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9717,13 +9681,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G158" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="H158" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9749,7 +9713,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9775,7 +9739,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9801,7 +9765,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9827,7 +9791,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9847,13 +9811,13 @@
         <v>1278</v>
       </c>
       <c r="F163" t="s">
-        <v>1340</v>
+        <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="H163" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9879,7 +9843,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9899,13 +9863,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1404</v>
+        <v>1365</v>
       </c>
       <c r="G165" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="H165" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9928,10 +9892,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="H166" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9951,13 +9915,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
       <c r="G167" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="H167" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9977,13 +9941,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G168" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="H168" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10009,7 +9973,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10032,10 +9996,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="H170" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10055,13 +10019,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G171" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="H171" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10081,13 +10045,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="H172" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10107,7 +10071,7 @@
         <v>1296</v>
       </c>
       <c r="H173" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10127,7 +10091,7 @@
         <v>1277</v>
       </c>
       <c r="H174" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10147,13 +10111,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G175" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="H175" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10173,7 +10137,7 @@
         <v>1276</v>
       </c>
       <c r="H176" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10193,13 +10157,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G177" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H177" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10219,13 +10183,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G178" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H178" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10245,13 +10209,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="G179" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="H179" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10271,13 +10235,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1346</v>
+        <v>1399</v>
       </c>
       <c r="G180" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="H180" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10297,7 +10261,7 @@
         <v>1277</v>
       </c>
       <c r="H181" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10317,7 +10281,7 @@
         <v>1278</v>
       </c>
       <c r="H182" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10337,13 +10301,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G183" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="H183" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10363,7 +10327,7 @@
         <v>1278</v>
       </c>
       <c r="H184" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10383,13 +10347,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G185" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="H185" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10415,7 +10379,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10441,7 +10405,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10467,7 +10431,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10493,7 +10457,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10519,7 +10483,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10539,13 +10503,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1407</v>
+        <v>1350</v>
       </c>
       <c r="G191" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="H191" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10565,13 +10529,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="G192" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="H192" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10591,13 +10555,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="G193" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="H193" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10617,13 +10581,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G194" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="H194" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10649,7 +10613,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10669,7 +10633,7 @@
         <v>1285</v>
       </c>
       <c r="H196" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10695,7 +10659,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10715,7 +10679,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10735,13 +10699,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="G199" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="H199" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10767,7 +10731,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10787,13 +10751,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G201" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="H201" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10813,13 +10777,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="G202" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="H202" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10845,7 +10809,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10865,13 +10829,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="H204" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10891,13 +10855,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="H205" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10917,7 +10881,7 @@
         <v>1276</v>
       </c>
       <c r="H206" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10937,13 +10901,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="G207" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="H207" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10963,13 +10927,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
       <c r="G208" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="H208" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10989,13 +10953,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1383</v>
+        <v>1365</v>
       </c>
       <c r="G209" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="H209" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11015,7 +10979,7 @@
         <v>1278</v>
       </c>
       <c r="H210" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11035,13 +10999,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G211" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="H211" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11061,13 +11025,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="G212" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
       <c r="H212" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11093,7 +11057,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11113,13 +11077,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G214" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
       <c r="H214" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11139,7 +11103,7 @@
         <v>1278</v>
       </c>
       <c r="H215" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11159,7 +11123,7 @@
         <v>1278</v>
       </c>
       <c r="H216" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11179,13 +11143,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="G217" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
       <c r="H217" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11205,13 +11169,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="G218" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="H218" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11231,13 +11195,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="G219" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="H219" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11257,13 +11221,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="G220" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="H220" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11283,13 +11247,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="G221" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="H221" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11309,13 +11273,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G222" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="H222" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11335,13 +11299,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="G223" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="H223" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11361,13 +11325,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="G224" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="H224" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11393,7 +11357,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11413,13 +11377,13 @@
         <v>1276</v>
       </c>
       <c r="F226" t="s">
-        <v>1371</v>
+        <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="H226" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11439,7 +11403,7 @@
         <v>1285</v>
       </c>
       <c r="H227" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11462,10 +11426,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="H228" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11491,7 +11455,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11511,7 +11475,7 @@
         <v>1294</v>
       </c>
       <c r="H230" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11531,13 +11495,13 @@
         <v>1276</v>
       </c>
       <c r="F231" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="H231" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11557,7 +11521,7 @@
         <v>1276</v>
       </c>
       <c r="H232" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11577,13 +11541,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="G233" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="H233" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11603,7 +11567,7 @@
         <v>1285</v>
       </c>
       <c r="H234" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11623,13 +11587,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="G235" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="H235" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11649,13 +11613,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G236" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="H236" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11675,13 +11639,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1419</v>
+        <v>1349</v>
       </c>
       <c r="G237" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="H237" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11701,13 +11665,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="G238" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="H238" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11727,13 +11691,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G239" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="H239" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11753,13 +11717,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="G240" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="H240" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11779,13 +11743,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="G241" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="H241" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11805,13 +11769,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="G242" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="H242" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11837,7 +11801,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11863,7 +11827,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11889,7 +11853,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11915,7 +11879,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11935,13 +11899,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G247" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
       <c r="H247" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11961,7 +11925,7 @@
         <v>1276</v>
       </c>
       <c r="H248" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11981,13 +11945,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G249" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="H249" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12007,13 +11971,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="H250" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12033,13 +11997,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="G251" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="H251" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12062,7 +12026,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12082,13 +12046,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G253" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="H253" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12114,7 +12078,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12134,13 +12098,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="G255" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="H255" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12163,10 +12127,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="H256" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12186,13 +12150,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="H257" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12212,7 +12176,7 @@
         <v>1279</v>
       </c>
       <c r="H258" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12232,13 +12196,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G259" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="H259" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12261,10 +12225,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="H260" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12290,7 +12254,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12316,7 +12280,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12336,13 +12300,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="G263" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
       <c r="H263" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12368,7 +12332,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12388,13 +12352,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="G265" t="s">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="H265" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12414,13 +12378,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="G266" t="s">
-        <v>1646</v>
+        <v>1634</v>
       </c>
       <c r="H266" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12440,13 +12404,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G267" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
       <c r="H267" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12466,7 +12430,7 @@
         <v>1286</v>
       </c>
       <c r="H268" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12486,13 +12450,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="G269" t="s">
-        <v>1648</v>
+        <v>1636</v>
       </c>
       <c r="H269" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12512,13 +12476,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G270" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="H270" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12538,13 +12502,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G271" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="H271" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12564,13 +12528,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="G272" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="H272" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12590,13 +12554,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1429</v>
+        <v>1347</v>
       </c>
       <c r="G273" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="H273" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12616,13 +12580,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="G274" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="H274" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12642,13 +12606,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="G275" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="H275" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12668,13 +12632,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1376</v>
+        <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="H276" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12694,13 +12658,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1412</v>
+        <v>1347</v>
       </c>
       <c r="G277" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="H277" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12720,13 +12684,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G278" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="H278" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12746,7 +12710,7 @@
         <v>1276</v>
       </c>
       <c r="H279" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12766,13 +12730,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="G280" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="H280" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12792,7 +12756,7 @@
         <v>1276</v>
       </c>
       <c r="H281" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12812,13 +12776,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1391</v>
+        <v>1424</v>
       </c>
       <c r="G282" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="H282" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12844,7 +12808,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12864,13 +12828,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="G284" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="H284" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12890,13 +12854,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="G285" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="H285" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12916,7 +12880,7 @@
         <v>1276</v>
       </c>
       <c r="H286" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12942,7 +12906,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12962,7 +12926,7 @@
         <v>1276</v>
       </c>
       <c r="H288" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12982,13 +12946,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="G289" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="H289" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13008,13 +12972,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="G290" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="H290" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13034,13 +12998,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="G291" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="H291" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13060,13 +13024,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="G292" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="H292" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13086,13 +13050,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="H293" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13118,7 +13082,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13138,13 +13102,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G295" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="H295" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13170,7 +13134,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13190,13 +13154,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="G297" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="H297" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13216,13 +13180,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G298" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="H298" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13248,7 +13212,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13268,7 +13232,7 @@
         <v>1276</v>
       </c>
       <c r="H300" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13291,10 +13255,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
       <c r="H301" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13314,13 +13278,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
       <c r="G302" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="H302" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13340,7 +13304,7 @@
         <v>1276</v>
       </c>
       <c r="H303" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13366,7 +13330,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13392,7 +13356,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13412,13 +13376,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G306" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="H306" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13444,7 +13408,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13464,13 +13428,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="H308" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13490,13 +13454,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="G309" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="H309" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13522,7 +13486,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13545,10 +13509,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="H311" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13574,7 +13538,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13594,7 +13558,7 @@
         <v>1276</v>
       </c>
       <c r="H313" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13620,7 +13584,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13640,13 +13604,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G315" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="H315" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13666,13 +13630,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1440</v>
+        <v>1350</v>
       </c>
       <c r="G316" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="H316" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13698,7 +13662,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13724,7 +13688,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13750,7 +13714,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13776,7 +13740,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13796,13 +13760,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="G321" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="H321" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13822,13 +13786,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="G322" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="H322" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13848,13 +13812,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G323" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="H323" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13874,13 +13838,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G324" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="H324" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13906,7 +13870,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13932,7 +13896,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13952,13 +13916,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="G327" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="H327" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13978,13 +13942,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="G328" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="H328" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14004,13 +13968,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G329" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="H329" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14030,13 +13994,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="G330" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="H330" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14056,13 +14020,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="G331" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="H331" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14082,13 +14046,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="G332" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="H332" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14108,13 +14072,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="H333" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14134,13 +14098,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1376</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
       <c r="H334" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14160,13 +14124,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G335" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="H335" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14186,13 +14150,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="G336" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="H336" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14212,13 +14176,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="G337" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
       <c r="H337" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14238,13 +14202,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G338" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
       <c r="H338" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14270,7 +14234,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14293,10 +14257,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="H340" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14316,13 +14280,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
       <c r="G341" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="H341" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14348,7 +14312,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14368,13 +14332,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G343" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="H343" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14394,13 +14358,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G344" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="H344" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14420,13 +14384,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1337</v>
+        <v>1442</v>
       </c>
       <c r="G345" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="H345" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14452,7 +14416,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14472,13 +14436,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="G347" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="H347" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14504,7 +14468,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14530,7 +14494,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14550,13 +14514,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G350" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="H350" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14576,13 +14540,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1451</v>
+        <v>1347</v>
       </c>
       <c r="G351" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="H351" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14602,13 +14566,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="G352" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="H352" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14628,13 +14592,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="G353" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="H353" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14654,13 +14618,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1372</v>
+        <v>1294</v>
       </c>
       <c r="G354" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="H354" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14680,13 +14644,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G355" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="H355" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14712,7 +14676,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14732,13 +14696,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1455</v>
+        <v>1368</v>
       </c>
       <c r="G357" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="H357" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14758,13 +14722,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="H358" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14784,13 +14748,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="G359" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="H359" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14810,13 +14774,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="H360" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14836,13 +14800,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G361" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="H361" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14862,13 +14826,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G362" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="H362" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14888,13 +14852,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="G363" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="H363" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14914,13 +14878,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="G364" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="H364" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14940,13 +14904,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1405</v>
+        <v>1345</v>
       </c>
       <c r="G365" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="H365" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14972,7 +14936,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14998,7 +14962,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15018,13 +14982,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G368" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="H368" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15044,13 +15008,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="H369" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15070,13 +15034,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="G370" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="H370" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15096,13 +15060,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G371" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="H371" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15122,13 +15086,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G372" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="H372" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15148,13 +15112,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G373" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="H373" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15174,7 +15138,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15194,13 +15158,13 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>1376</v>
+        <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="H375" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15220,13 +15184,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G376" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H376" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15246,13 +15210,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="G377" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H377" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15272,7 +15236,7 @@
         <v>1285</v>
       </c>
       <c r="H378" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15292,13 +15256,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="G379" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="H379" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15324,7 +15288,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15344,7 +15308,7 @@
         <v>1322</v>
       </c>
       <c r="H381" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15364,13 +15328,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="G382" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="H382" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15390,13 +15354,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="G383" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="H383" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15416,13 +15380,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G384" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="H384" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15442,13 +15406,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
       <c r="G385" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="H385" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15468,13 +15432,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="G386" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="H386" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15494,7 +15458,7 @@
         <v>1294</v>
       </c>
       <c r="H387" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15514,13 +15478,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1418</v>
+        <v>1455</v>
       </c>
       <c r="G388" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="H388" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15540,13 +15504,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G389" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="H389" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15566,7 +15530,7 @@
         <v>1295</v>
       </c>
       <c r="H390" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15586,13 +15550,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1422</v>
+        <v>1456</v>
       </c>
       <c r="G391" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="H391" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15612,7 +15576,7 @@
         <v>1285</v>
       </c>
       <c r="H392" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15638,7 +15602,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15658,13 +15622,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1464</v>
+        <v>1366</v>
       </c>
       <c r="G394" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="H394" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15690,7 +15654,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15710,7 +15674,7 @@
         <v>1285</v>
       </c>
       <c r="H396" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15730,13 +15694,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G397" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H397" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15756,13 +15720,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="G398" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="H398" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15788,7 +15752,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15808,13 +15772,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G400" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H400" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15834,13 +15798,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="H401" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15860,7 +15824,7 @@
         <v>1294</v>
       </c>
       <c r="H402" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15880,13 +15844,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G403" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="H403" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15906,13 +15870,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="H404" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15932,13 +15896,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="H405" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15964,7 +15928,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15984,7 +15948,7 @@
         <v>1294</v>
       </c>
       <c r="H407" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16004,13 +15968,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1466</v>
+        <v>1412</v>
       </c>
       <c r="G408" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="H408" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16030,13 +15994,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1371</v>
+        <v>1276</v>
       </c>
       <c r="G409" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="H409" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16056,7 +16020,7 @@
         <v>1285</v>
       </c>
       <c r="H410" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16076,13 +16040,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G411" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H411" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16102,7 +16066,7 @@
         <v>1285</v>
       </c>
       <c r="H412" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16122,13 +16086,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="G413" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H413" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16148,13 +16112,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G414" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="H414" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16174,7 +16138,7 @@
         <v>1330</v>
       </c>
       <c r="H415" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16200,7 +16164,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16219,14 +16183,11 @@
       <c r="E417" t="s">
         <v>1285</v>
       </c>
-      <c r="F417" t="s">
-        <v>1430</v>
-      </c>
       <c r="G417" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="H417" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16246,7 +16207,7 @@
         <v>1331</v>
       </c>
       <c r="H418" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16266,13 +16227,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="G419" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="H419" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16292,7 +16253,7 @@
         <v>1285</v>
       </c>
       <c r="H420" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16312,13 +16273,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G421" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="H421" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16338,13 +16299,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1363</v>
+        <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="H422" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16364,7 +16325,7 @@
         <v>1285</v>
       </c>
       <c r="H423" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16384,7 +16345,7 @@
         <v>1285</v>
       </c>
       <c r="H424" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16404,13 +16365,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G425" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="H425" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16430,13 +16391,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="G426" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="H426" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16456,13 +16417,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1469</v>
+        <v>1346</v>
       </c>
       <c r="G427" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="H427" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16485,10 +16446,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="H428" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16508,13 +16469,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="G429" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="H429" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16534,7 +16495,7 @@
         <v>1294</v>
       </c>
       <c r="H430" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16554,7 +16515,7 @@
         <v>1297</v>
       </c>
       <c r="H431" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16574,13 +16535,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="G432" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="H432" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16606,7 +16567,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16626,13 +16587,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="G434" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="H434" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16652,13 +16613,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="G435" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="H435" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16678,13 +16639,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="H436" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16704,13 +16665,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="G437" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="H437" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16736,7 +16697,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16759,10 +16720,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="H439" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16782,7 +16743,7 @@
         <v>1279</v>
       </c>
       <c r="H440" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16802,13 +16763,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="G441" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="H441" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16828,13 +16789,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1475</v>
+        <v>1442</v>
       </c>
       <c r="G442" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="H442" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16857,10 +16818,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H443" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16880,13 +16841,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G444" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="H444" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16906,13 +16867,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1476</v>
+        <v>1444</v>
       </c>
       <c r="G445" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="H445" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16932,13 +16893,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G446" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="H446" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -16958,13 +16919,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G447" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="H447" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -16984,13 +16945,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G448" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="H448" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17010,7 +16971,7 @@
         <v>1294</v>
       </c>
       <c r="H449" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17030,13 +16991,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="G450" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H450" t="s">
         <v>1760</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17056,13 +17017,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="G451" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H451" t="s">
         <v>1761</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17082,13 +17043,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="G452" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="H452" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17108,13 +17069,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="G453" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="H453" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17140,7 +17101,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17160,13 +17121,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="G455" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="H455" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17186,13 +17147,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G456" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="H456" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17212,7 +17173,7 @@
         <v>1279</v>
       </c>
       <c r="H457" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17235,10 +17196,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="H458" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17258,10 +17219,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="H459" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17287,7 +17248,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17307,13 +17268,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="G461" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="H461" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17333,13 +17294,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="G462" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="H462" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17362,10 +17323,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="H463" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
